--- a/backend/data/synthetic/taxpayers.xlsx
+++ b/backend/data/synthetic/taxpayers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,2006 +2475,6 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>29KGDJT2363R8Z1</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Velocity Rainbow Group</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Velocity Rainbow</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2018-09-16</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>04DYHMC8146T9ZQ</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Wave Galaxy Services</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Wave Galaxy Services</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Chandigarh</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2023-06-28</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>09AJLYW0659J7ZH</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Imperial Empire Corporation</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Imperial Empire</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2020-05-18</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>11GDOBT2283D1ZH</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Fortune Excel Co</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Fortune Excel</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Sikkim</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2019-12-16</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>12UGIEB7574U9Z6</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Synergy Trend Industries</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Synergy Trend Industries</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Arunachal Pradesh</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2018-06-27</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>37AZWLC7483D3ZH</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Vortex Vedic Solutions</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Vortex Vedic</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Andhra Pradesh</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>2023-12-14</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>14CSWQT7242I8ZP</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Summit Dynamic Solutions</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Summit Dynamic</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Manipur</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2020-11-10</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>16BVCCT8555I2ZQ</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Ruby Sun Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Ruby Sun Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Tripura</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2021-07-03</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>07EMWJO1224O9Z1</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Zeus Orient Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Zeus Orient</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Delhi</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2021-06-19</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>32DRBTZ0534E5ZK</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Vision Zenith Ltd</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Vision Zenith Ltd</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Kerala</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>2019-09-30</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>SEZ Unit</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>03HRMLH7142R8ZX</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Pure Century Industries</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Pure Century</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>2018-08-13</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>07TTHDM4152O6Z4</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Solar Century Services</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Solar Century</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Delhi</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>2018-11-15</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>SEZ Unit</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>13SKCAI8689C2ZF</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Super Wave Services</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Super Wave</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Nagaland</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2022-06-10</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>27ENCNX3788G3ZG</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Indus Green Group</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Indus Green</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Maharashtra</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>2018-11-05</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>19TLYOQ6861B8ZJ</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Pacific Wave Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Pacific Wave</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>2018-10-31</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>02JHQZC5359T1ZS</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Vivid Imperial Solutions</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Vivid Imperial Solutions</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Himachal Pradesh</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>29XISNE2445E6ZI</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Smart Sterling Solutions</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Smart Sterling Solutions</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>2018-08-03</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>18RHSRX8351J7Z8</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Zenith Delta Traders</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Zenith Delta</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>2021-09-07</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>SEZ Unit</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>22LJJEF9421C2ZW</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Valor United Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Valor United Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Chhattisgarh</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>2019-06-21</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>06VUVEL4624H8ZE</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Universal Modern Traders</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Universal Modern Traders</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2023-04-06</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>19ZMHJN9881G8ZN</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Vedic Eagle Co</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Vedic Eagle Co</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>2021-03-13</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>33NVCXV8943J7Z5</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Shree Lucky Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Shree Lucky</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Tamil Nadu</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>2019-02-10</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>10XMVTM6902D9ZR</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Elite Pioneer Industries</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Elite Pioneer</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>2018-07-15</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>20LCXPA5214P4ZQ</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Horizon Delta Co</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Horizon Delta Co</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Jharkhand</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>2018-10-05</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>SEZ Unit</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>17OKMQZ2073T2ZL</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Falcon Century Solutions</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Falcon Century</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Meghalaya</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2019-12-19</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>29DSYAF7833K9ZU</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Nova Bright Industries</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Nova Bright</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2018-07-15</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>12LKLYI1637G2ZR</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Delta Super Group</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Delta Super Group</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Arunachal Pradesh</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>2020-01-10</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>03IHLSE4479P7ZH</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Cosmos Crystal Services</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Cosmos Crystal</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2019-10-18</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>22UABUJ3566Y6ZS</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Crystal Vivid Enterprises</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Crystal Vivid</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Chhattisgarh</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2022-06-19</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>04AENXD7726S8ZC</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Empire Falcon Ltd</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Empire Falcon</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Chandigarh</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2022-12-29</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>23BOXWS9675D4Z8</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Modern Trans Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Modern Trans</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Madhya Pradesh</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2022-02-20</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>SEZ Unit</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>33CIZSN7809Q8ZT</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Ultra Royal Enterprises</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Ultra Royal Enterprises</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Tamil Nadu</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2020-01-16</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>32BDDEI7398V5ZC</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Vedic Pacific Enterprises</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Vedic Pacific Enterprises</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Kerala</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2023-12-26</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>SEZ Unit</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>19YERSP8580B5ZD</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Vivid Summit Group</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Vivid Summit Group</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2023-08-02</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>10MURHB0442P6ZK</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Royal Star Enterprises</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Royal Star Enterprises</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2023-10-11</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>15DLDBY8499V6ZC</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Global Trans Co</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Global Trans</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Mizoram</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2021-06-17</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>13NZFJB4864N2ZR</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Falcon Omega Solutions</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Falcon Omega Solutions</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Nagaland</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>2022-02-07</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>18FOBNT2961Z7ZN</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Reliable Velocity Solutions</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Reliable Velocity Solutions</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2020-03-26</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>SEZ Unit</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>02BDIML6536E5ZL</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Trend True Co</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Trend True</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Himachal Pradesh</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2021-05-12</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>22CKHXW6526Z4Z3</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Vortex Total Enterprises</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Vortex Total</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Chhattisgarh</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>2022-04-07</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>37SELKK2564W1Z8</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Ultra Jade Co</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Ultra Jade</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Andhra Pradesh</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>2023-05-14</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>06LNORW6824Y5ZZ</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Pro Lucky Traders</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Pro Lucky Traders</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>2020-04-29</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>18YUHDR3989U5Z2</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Pioneer Delta Solutions</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Pioneer Delta Solutions</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>2020-11-16</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>18HOHCT2092G2ZQ</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Rapid Titan Ltd</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Rapid Titan Ltd</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>2019-07-18</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>SEZ Unit</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>06KYWMF9369C4ZY</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Bright Green Services</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Bright Green Services</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>2019-12-22</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>06YZYWA5192Z9ZX</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Trans Falcon Co</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Trans Falcon</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>2020-02-29</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>15QSAIH6166K7ZW</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Rainbow Divine Services</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Rainbow Divine Services</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Mizoram</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>2020-01-27</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>08AJLGI5523G2ZT</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Pure Global Services</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Pure Global Services</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>2021-06-27</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>08FDDTP4545R4ZF</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Zenith Delta Co</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Zenith Delta</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>2022-01-21</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>SEZ Unit</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>30ONODI5125C9ZS</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Cosmos Tech Enterprises</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Cosmos Tech</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Goa</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Suspended</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
